--- a/data/Orcus - Powers.xlsx
+++ b/data/Orcus - Powers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Obsidian\Tabletop games\d20 System or D&amp;D-esque\2021 Orcus - 4E clone\GitHub\orcus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B3A9FA-C3BA-4325-B7E0-B491EF60964E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE96E24D-588A-4B39-AF69-FC20867A880D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/Orcus - Powers.xlsx
+++ b/data/Orcus - Powers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Obsidian\Tabletop games\d20 System or D&amp;D-esque\2021 Orcus - 4E clone\GitHub\orcus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC7CC22-AAF9-4E9D-90BC-B5C75600BD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF064A5-527D-4412-9E57-60278A870C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11736,14 +11736,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:AB966"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E856" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E819" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T870" sqref="T870"/>
+      <selection pane="bottomRight" activeCell="C828" sqref="C828:C838"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11838,7 +11838,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1775</v>
       </c>
@@ -12285,7 +12285,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>18</v>
       </c>
@@ -13332,7 +13332,7 @@
         <v>3141</v>
       </c>
     </row>
-    <row r="44" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>2115</v>
       </c>
@@ -13521,7 +13521,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="50" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>1771</v>
       </c>
@@ -13573,7 +13573,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="52" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>1771</v>
       </c>
@@ -13672,7 +13672,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="55" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>1771</v>
       </c>
@@ -13756,7 +13756,7 @@
         <v>2764</v>
       </c>
     </row>
-    <row r="58" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>1771</v>
       </c>
@@ -13840,7 +13840,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="61" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>1771</v>
       </c>
@@ -14044,7 +14044,7 @@
         <v>2892</v>
       </c>
     </row>
-    <row r="67" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>1771</v>
       </c>
@@ -14210,7 +14210,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="72" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>1771</v>
       </c>
@@ -14388,7 +14388,7 @@
         <v>3225</v>
       </c>
     </row>
-    <row r="77" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>2143</v>
       </c>
@@ -14783,7 +14783,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="87" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>1770</v>
       </c>
@@ -16640,7 +16640,7 @@
         <v>3414</v>
       </c>
     </row>
-    <row r="135" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
         <v>1770</v>
       </c>
@@ -17415,7 +17415,7 @@
         <v>3417</v>
       </c>
     </row>
-    <row r="154" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
         <v>1770</v>
       </c>
@@ -18381,7 +18381,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="178" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B178" t="s">
         <v>1770</v>
       </c>
@@ -19103,7 +19103,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="197" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B197" t="s">
         <v>1770</v>
       </c>
@@ -19526,7 +19526,7 @@
         <v>2823</v>
       </c>
     </row>
-    <row r="209" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B209" t="s">
         <v>1770</v>
       </c>
@@ -20655,7 +20655,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="238" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B238" t="s">
         <v>1770</v>
       </c>
@@ -21119,7 +21119,7 @@
         <v>2833</v>
       </c>
     </row>
-    <row r="251" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B251" t="s">
         <v>1770</v>
       </c>
@@ -22461,7 +22461,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="283" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B283" t="s">
         <v>1770</v>
       </c>
@@ -24154,7 +24154,7 @@
         <v>2883</v>
       </c>
     </row>
-    <row r="321" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B321" t="s">
         <v>1770</v>
       </c>
@@ -25227,7 +25227,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="346" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B346" t="s">
         <v>1770</v>
       </c>
@@ -25924,7 +25924,7 @@
         <v>2891</v>
       </c>
     </row>
-    <row r="363" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B363" t="s">
         <v>1770</v>
       </c>
@@ -26687,7 +26687,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="383" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B383" t="s">
         <v>1770</v>
       </c>
@@ -27577,7 +27577,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="405" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="2:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B405" t="s">
         <v>1770</v>
       </c>
@@ -30842,7 +30842,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="482" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="2:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B482" t="s">
         <v>1770</v>
       </c>
@@ -30868,7 +30868,7 @@
         <v>3344</v>
       </c>
     </row>
-    <row r="483" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="2:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B483" t="s">
         <v>1770</v>
       </c>
@@ -31637,7 +31637,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="503" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="2:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B503" t="s">
         <v>1770</v>
       </c>
@@ -32881,7 +32881,7 @@
         <v>3091</v>
       </c>
     </row>
-    <row r="531" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="2:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B531" t="s">
         <v>1770</v>
       </c>
@@ -34365,7 +34365,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="565" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="2:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B565" t="s">
         <v>1770</v>
       </c>
@@ -35279,7 +35279,7 @@
         <v>3174</v>
       </c>
     </row>
-    <row r="587" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="2:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B587" t="s">
         <v>1770</v>
       </c>
@@ -37949,7 +37949,7 @@
         <v>2717</v>
       </c>
     </row>
-    <row r="659" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="2:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B659" t="s">
         <v>1770</v>
       </c>
@@ -39271,7 +39271,7 @@
         <v>3236</v>
       </c>
     </row>
-    <row r="690" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="2:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B690" t="s">
         <v>1770</v>
       </c>
@@ -40131,7 +40131,7 @@
         <v>2978</v>
       </c>
     </row>
-    <row r="709" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="2:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B709" t="s">
         <v>1770</v>
       </c>
@@ -42107,7 +42107,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="752" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="2:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B752" t="s">
         <v>1770</v>
       </c>
@@ -42647,7 +42647,7 @@
         <v>3267</v>
       </c>
     </row>
-    <row r="767" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="2:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B767" t="s">
         <v>1770</v>
       </c>
@@ -43184,7 +43184,7 @@
         <v>3282</v>
       </c>
     </row>
-    <row r="779" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="2:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B779" t="s">
         <v>1770</v>
       </c>
@@ -44050,7 +44050,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="801" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B801" t="s">
         <v>1770</v>
       </c>
@@ -44097,7 +44097,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="802" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B802" t="s">
         <v>1770</v>
       </c>
@@ -44150,7 +44150,7 @@
         <v>3294</v>
       </c>
     </row>
-    <row r="803" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B803" t="s">
         <v>1770</v>
       </c>
@@ -44185,7 +44185,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="804" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B804" t="s">
         <v>1770</v>
       </c>
@@ -44220,7 +44220,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="805" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B805" t="s">
         <v>1770</v>
       </c>
@@ -44258,7 +44258,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="806" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B806" t="s">
         <v>1770</v>
       </c>
@@ -44293,7 +44293,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="807" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B807" t="s">
         <v>1770</v>
       </c>
@@ -44328,7 +44328,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="808" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B808" t="s">
         <v>1770</v>
       </c>
@@ -44378,7 +44378,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="809" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B809" t="s">
         <v>1770</v>
       </c>
@@ -44425,7 +44425,7 @@
         <v>3296</v>
       </c>
     </row>
-    <row r="810" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B810" t="s">
         <v>1770</v>
       </c>
@@ -44472,7 +44472,7 @@
         <v>3297</v>
       </c>
     </row>
-    <row r="811" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B811" t="s">
         <v>1770</v>
       </c>
@@ -44519,7 +44519,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="812" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B812" t="s">
         <v>1770</v>
       </c>
@@ -44548,7 +44548,10 @@
         <v>2794</v>
       </c>
     </row>
-    <row r="813" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A813">
+        <v>1</v>
+      </c>
       <c r="B813" t="s">
         <v>1770</v>
       </c>
@@ -44592,7 +44595,10 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="814" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A814">
+        <v>1</v>
+      </c>
       <c r="B814" t="s">
         <v>1770</v>
       </c>
@@ -44636,7 +44642,10 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="815" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A815">
+        <v>1</v>
+      </c>
       <c r="B815" t="s">
         <v>1770</v>
       </c>
@@ -44680,7 +44689,10 @@
         <v>2612</v>
       </c>
     </row>
-    <row r="816" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A816">
+        <v>1</v>
+      </c>
       <c r="B816" t="s">
         <v>1770</v>
       </c>
@@ -44724,7 +44736,10 @@
         <v>2619</v>
       </c>
     </row>
-    <row r="817" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A817">
+        <v>1</v>
+      </c>
       <c r="B817" t="s">
         <v>1770</v>
       </c>
@@ -44768,7 +44783,10 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="818" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A818">
+        <v>1</v>
+      </c>
       <c r="B818" t="s">
         <v>1770</v>
       </c>
@@ -44812,7 +44830,10 @@
         <v>2619</v>
       </c>
     </row>
-    <row r="819" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A819">
+        <v>1</v>
+      </c>
       <c r="B819" t="s">
         <v>1770</v>
       </c>
@@ -44856,7 +44877,10 @@
         <v>2894</v>
       </c>
     </row>
-    <row r="820" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A820">
+        <v>1</v>
+      </c>
       <c r="B820" t="s">
         <v>1770</v>
       </c>
@@ -44903,7 +44927,10 @@
         <v>2895</v>
       </c>
     </row>
-    <row r="821" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A821">
+        <v>1</v>
+      </c>
       <c r="B821" t="s">
         <v>1770</v>
       </c>
@@ -44947,7 +44974,10 @@
         <v>2896</v>
       </c>
     </row>
-    <row r="822" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A822">
+        <v>1</v>
+      </c>
       <c r="B822" t="s">
         <v>1770</v>
       </c>
@@ -44991,7 +45021,10 @@
         <v>2897</v>
       </c>
     </row>
-    <row r="823" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A823">
+        <v>1</v>
+      </c>
       <c r="B823" t="s">
         <v>1770</v>
       </c>
@@ -45035,7 +45068,10 @@
         <v>2898</v>
       </c>
     </row>
-    <row r="824" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A824">
+        <v>1</v>
+      </c>
       <c r="B824" t="s">
         <v>1770</v>
       </c>
@@ -45082,7 +45118,10 @@
         <v>2643</v>
       </c>
     </row>
-    <row r="825" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A825">
+        <v>1</v>
+      </c>
       <c r="B825" t="s">
         <v>1770</v>
       </c>
@@ -45126,7 +45165,10 @@
         <v>2899</v>
       </c>
     </row>
-    <row r="826" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A826">
+        <v>1</v>
+      </c>
       <c r="B826" t="s">
         <v>1770</v>
       </c>
@@ -45170,7 +45212,7 @@
         <v>2642</v>
       </c>
     </row>
-    <row r="827" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B827" t="s">
         <v>1773</v>
       </c>
@@ -45187,7 +45229,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="828" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B828" t="s">
         <v>1773</v>
       </c>
@@ -45228,7 +45270,7 @@
         <v>3158</v>
       </c>
     </row>
-    <row r="829" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B829" t="s">
         <v>1773</v>
       </c>
@@ -45245,7 +45287,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="830" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B830" t="s">
         <v>1773</v>
       </c>
@@ -45283,7 +45325,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="831" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B831" t="s">
         <v>1773</v>
       </c>
@@ -45300,7 +45342,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="832" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B832" t="s">
         <v>1773</v>
       </c>
@@ -45335,7 +45377,7 @@
         <v>3395</v>
       </c>
     </row>
-    <row r="833" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="2:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B833" t="s">
         <v>1773</v>
       </c>
@@ -45390,7 +45432,7 @@
         <v>3397</v>
       </c>
     </row>
-    <row r="835" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="2:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B835" t="s">
         <v>1773</v>
       </c>
@@ -45445,7 +45487,7 @@
         <v>3398</v>
       </c>
     </row>
-    <row r="837" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="2:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B837" t="s">
         <v>1773</v>
       </c>
@@ -45500,7 +45542,7 @@
         <v>3401</v>
       </c>
     </row>
-    <row r="839" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="2:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B839" t="s">
         <v>2069</v>
       </c>
@@ -46476,7 +46518,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="865" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="2:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B865" t="s">
         <v>1843</v>
       </c>
@@ -47296,7 +47338,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="888" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="2:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B888" t="s">
         <v>1774</v>
       </c>
@@ -47386,7 +47428,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="891" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="2:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B891" t="s">
         <v>1769</v>
       </c>
@@ -47535,7 +47577,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="895" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="2:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B895" t="s">
         <v>1769</v>
       </c>
@@ -47678,7 +47720,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="899" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="2:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B899" t="s">
         <v>1769</v>
       </c>
@@ -47940,7 +47982,7 @@
         <v>3387</v>
       </c>
     </row>
-    <row r="907" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="2:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B907" t="s">
         <v>1769</v>
       </c>
@@ -48071,7 +48113,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="911" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="2:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B911" t="s">
         <v>1769</v>
       </c>
@@ -48208,7 +48250,7 @@
         <v>3394</v>
       </c>
     </row>
-    <row r="915" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="2:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B915" t="s">
         <v>1769</v>
       </c>
@@ -48327,7 +48369,7 @@
         <v>3145</v>
       </c>
     </row>
-    <row r="919" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="2:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B919" t="s">
         <v>1769</v>
       </c>
@@ -48464,7 +48506,7 @@
         <v>3310</v>
       </c>
     </row>
-    <row r="923" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="2:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B923" t="s">
         <v>1769</v>
       </c>
@@ -48616,7 +48658,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="927" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="2:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B927" t="s">
         <v>1769</v>
       </c>
@@ -48753,7 +48795,7 @@
         <v>3363</v>
       </c>
     </row>
-    <row r="931" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="2:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B931" t="s">
         <v>1769</v>
       </c>
@@ -48914,7 +48956,7 @@
         <v>2985</v>
       </c>
     </row>
-    <row r="935" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="2:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B935" t="s">
         <v>1769</v>
       </c>
@@ -49042,7 +49084,7 @@
         <v>3314</v>
       </c>
     </row>
-    <row r="939" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="2:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B939" t="s">
         <v>1769</v>
       </c>
@@ -49188,7 +49230,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="943" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="2:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B943" t="s">
         <v>1769</v>
       </c>
@@ -49322,7 +49364,7 @@
         <v>2986</v>
       </c>
     </row>
-    <row r="947" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="2:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B947" t="s">
         <v>1769</v>
       </c>
@@ -49459,7 +49501,7 @@
         <v>3319</v>
       </c>
     </row>
-    <row r="951" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="2:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B951" t="s">
         <v>1769</v>
       </c>
@@ -49605,7 +49647,7 @@
         <v>3320</v>
       </c>
     </row>
-    <row r="955" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="2:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B955" t="s">
         <v>1769</v>
       </c>
@@ -49754,7 +49796,7 @@
         <v>3428</v>
       </c>
     </row>
-    <row r="959" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="2:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B959" t="s">
         <v>1769</v>
       </c>
@@ -49885,7 +49927,7 @@
         <v>3079</v>
       </c>
     </row>
-    <row r="963" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="2:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B963" t="s">
         <v>1769</v>
       </c>
@@ -50020,7 +50062,909 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:AB966" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="B1:AB966" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters blank="1">
+        <filter val="Abnormally Fast"/>
+        <filter val="Abyssal Bargain"/>
+        <filter val="Accelerated Action"/>
+        <filter val="Accompanying Elfshot"/>
+        <filter val="Acid Shard"/>
+        <filter val="Act Casual"/>
+        <filter val="Act of God"/>
+        <filter val="Active Camouflage"/>
+        <filter val="Adaptable Warrior"/>
+        <filter val="Advanced Binding"/>
+        <filter val="Aggravate the Wound"/>
+        <filter val="Aggressive Response"/>
+        <filter val="Agile Animus"/>
+        <filter val="Aimed Shot"/>
+        <filter val="All a Jumble"/>
+        <filter val="All Attention"/>
+        <filter val="All Fours"/>
+        <filter val="All or Nothing"/>
+        <filter val="Altered Penumbra"/>
+        <filter val="An Ounce of Prevention"/>
+        <filter val="An Unwise Action"/>
+        <filter val="Anchoring Spirit"/>
+        <filter val="Animal Form"/>
+        <filter val="Animal Instincts"/>
+        <filter val="Any Opportunity"/>
+        <filter val="Arcane Expulsion"/>
+        <filter val="Arcane Shield"/>
+        <filter val="Arcane Torrent"/>
+        <filter val="Armaments of the Empire"/>
+        <filter val="Arrow Flight"/>
+        <filter val="Assassin’s Arrow"/>
+        <filter val="Assassin’s Blood"/>
+        <filter val="Assassin’s Gambit"/>
+        <filter val="Assay Resistance"/>
+        <filter val="Attack Deflection"/>
+        <filter val="Attack from the Blue"/>
+        <filter val="Attack of Necessity"/>
+        <filter val="Attract Attention"/>
+        <filter val="Aura of Mending"/>
+        <filter val="Aura of Painful Clarity"/>
+        <filter val="Aura of Psychic Vengeance"/>
+        <filter val="Awaken the Sleeper"/>
+        <filter val="Axe Grind"/>
+        <filter val="Back of Your Head"/>
+        <filter val="Back-To-Back"/>
+        <filter val="Backup Plan"/>
+        <filter val="Bad Bear"/>
+        <filter val="Bad Dream"/>
+        <filter val="Bandit’s Yell"/>
+        <filter val="Banish to the Beyond"/>
+        <filter val="Barbed Arrows"/>
+        <filter val="Barrel Along"/>
+        <filter val="Basic Melee Attack"/>
+        <filter val="Basic Ranged Attack"/>
+        <filter val="Batter The Target"/>
+        <filter val="Battle Against the Sun"/>
+        <filter val="Battle Position"/>
+        <filter val="Battle Stride"/>
+        <filter val="Battle Symphony"/>
+        <filter val="Battlefield Dance"/>
+        <filter val="Beacon Sigil"/>
+        <filter val="Bear Hug"/>
+        <filter val="Befuddle"/>
+        <filter val="Behemoth"/>
+        <filter val="Behemoth-Killer"/>
+        <filter val="Behind Me!"/>
+        <filter val="Best Defense is a Good Offense"/>
+        <filter val="Beyond The Call"/>
+        <filter val="Biteback"/>
+        <filter val="Biting Taunt"/>
+        <filter val="Black Sky"/>
+        <filter val="Black Smear Poison"/>
+        <filter val="Blackout"/>
+        <filter val="Blast Infidels"/>
+        <filter val="Blatant Disregard for Personal Safety"/>
+        <filter val="Blazing Mantle"/>
+        <filter val="Bleeding Strike"/>
+        <filter val="Blessed Feast"/>
+        <filter val="Blind Spot"/>
+        <filter val="Blinding Mucus"/>
+        <filter val="Blitzing Yell"/>
+        <filter val="Block Retreat"/>
+        <filter val="Blocking Pose"/>
+        <filter val="Blood Lust"/>
+        <filter val="Blood Tell"/>
+        <filter val="Blood Tracer"/>
+        <filter val="Bloodhound"/>
+        <filter val="Blur of Cloaks"/>
+        <filter val="Blurring Sigil"/>
+        <filter val="Boar’s Head"/>
+        <filter val="Bob and Weave"/>
+        <filter val="Bolster"/>
+        <filter val="Bolster the Line"/>
+        <filter val="Bolt from the Blue"/>
+        <filter val="Bolt Waltz"/>
+        <filter val="Bone Blade"/>
+        <filter val="Bone Shield"/>
+        <filter val="Boost Performance"/>
+        <filter val="Bottled Thermodynamic Transfer"/>
+        <filter val="Boundless Possibilities"/>
+        <filter val="Bramble Step"/>
+        <filter val="Bravado"/>
+        <filter val="Break Will"/>
+        <filter val="Breath of the Moon"/>
+        <filter val="Breath Weapon"/>
+        <filter val="Breeze"/>
+        <filter val="Brief Mimicry"/>
+        <filter val="Brilliant Display"/>
+        <filter val="Brilliant Moon"/>
+        <filter val="Brilliant Opportunity"/>
+        <filter val="Brimstone Fumes"/>
+        <filter val="Bring Me Everyone"/>
+        <filter val="Broken Equilibrium"/>
+        <filter val="Buoyancy"/>
+        <filter val="Burn It Off"/>
+        <filter val="Burning Up"/>
+        <filter val="Butt In"/>
+        <filter val="Calculated Strike"/>
+        <filter val="Call Bid"/>
+        <filter val="Call to Action"/>
+        <filter val="Calling Card"/>
+        <filter val="Careful Focus"/>
+        <filter val="Careful Slice"/>
+        <filter val="Careful Targeting"/>
+        <filter val="Carrion Screech"/>
+        <filter val="Cascade of Elemental Wrath"/>
+        <filter val="Censure Undead"/>
+        <filter val="Center of Attention"/>
+        <filter val="Center Peel"/>
+        <filter val="Certain Strike"/>
+        <filter val="Cerulean Scourge"/>
+        <filter val="Chain Shots"/>
+        <filter val="Chaotic Blow"/>
+        <filter val="Charge of the Battle Cat"/>
+        <filter val="Check the Wind"/>
+        <filter val="Chill Spirit"/>
+        <filter val="Choppers"/>
+        <filter val="Chrysalis"/>
+        <filter val="Circling the Prey"/>
+        <filter val="Clay"/>
+        <filter val="Clean Kill"/>
+        <filter val="Clear the Ground"/>
+        <filter val="Clearing the Room"/>
+        <filter val="Cleaving Slice"/>
+        <filter val="Cloak Abduction"/>
+        <filter val="Cloud of Hellfire"/>
+        <filter val="Cold Shard"/>
+        <filter val="Commanding Presence"/>
+        <filter val="Companion Form"/>
+        <filter val="Companion Rampage"/>
+        <filter val="Companion Strike"/>
+        <filter val="Companion Swarm"/>
+        <filter val="Complete Covertness"/>
+        <filter val="Compliant Target"/>
+        <filter val="Cone of Barbs"/>
+        <filter val="Consequential Attack"/>
+        <filter val="Consumption of the Sinful"/>
+        <filter val="Contagion"/>
+        <filter val="Control The Battle Theatre"/>
+        <filter val="Cool Nerves"/>
+        <filter val="Counter-Surge"/>
+        <filter val="Cover Opportunity"/>
+        <filter val="Cover The Escape"/>
+        <filter val="Covering Shot"/>
+        <filter val="Create Diversion"/>
+        <filter val="Create Item"/>
+        <filter val="Critical Moment"/>
+        <filter val="Cull the Weak"/>
+        <filter val="Curate’s Strike"/>
+        <filter val="Cursed Fate"/>
+        <filter val="Cut the Strings"/>
+        <filter val="Damage Power Source"/>
+        <filter val="Dance in Fire"/>
+        <filter val="Dance of Blades"/>
+        <filter val="Dazzling Personality"/>
+        <filter val="Deadly Thrust"/>
+        <filter val="Death Defying"/>
+        <filter val="Death Mark"/>
+        <filter val="Death’s Twin"/>
+        <filter val="Deceptive Motion"/>
+        <filter val="Decree of Death"/>
+        <filter val="Decree of Freedom"/>
+        <filter val="Decree of Mercy"/>
+        <filter val="Decree of Purity"/>
+        <filter val="Decree of Silence"/>
+        <filter val="Decree of Vengeance"/>
+        <filter val="Deep Cover"/>
+        <filter val="Deep Scan"/>
+        <filter val="Defending the Pride"/>
+        <filter val="Deflect Attack"/>
+        <filter val="Deflection"/>
+        <filter val="Degrade Resistance"/>
+        <filter val="Deimatic Display"/>
+        <filter val="Delayed Death Touch"/>
+        <filter val="Demonic Explosion"/>
+        <filter val="Demoralizing Roar"/>
+        <filter val="Destructive Criticism"/>
+        <filter val="Deter"/>
+        <filter val="Devastating Body Attack"/>
+        <filter val="Dimensional Strike"/>
+        <filter val="Direct Manipulation"/>
+        <filter val="Direct Strike"/>
+        <filter val="Direct the Pride"/>
+        <filter val="Direct Threat"/>
+        <filter val="Disappearing Act"/>
+        <filter val="Disarm"/>
+        <filter val="Discipline of the Holy Host"/>
+        <filter val="Diseased Blood"/>
+        <filter val="Dismiss"/>
+        <filter val="Dispersal Strike"/>
+        <filter val="Disrupt Essence"/>
+        <filter val="Distracting Arrow"/>
+        <filter val="Distracting Attack"/>
+        <filter val="Distracting Strike"/>
+        <filter val="Distraction"/>
+        <filter val="Disturbing Blow"/>
+        <filter val="Diverting Attack"/>
+        <filter val="Divide and Conquer"/>
+        <filter val="Dodge with Panache"/>
+        <filter val="Double Attack"/>
+        <filter val="Double Dimension"/>
+        <filter val="Double Down"/>
+        <filter val="Down Fighting"/>
+        <filter val="Drag Down"/>
+        <filter val="Dream Construct"/>
+        <filter val="Dream Dive"/>
+        <filter val="Dream Eater"/>
+        <filter val="Dream Prison"/>
+        <filter val="Dreamstone"/>
+        <filter val="Dreamtrancer"/>
+        <filter val="Dreamwalkers"/>
+        <filter val="Duck for Cover"/>
+        <filter val="Dynamic Tempest"/>
+        <filter val="Easy Charm"/>
+        <filter val="Eclipsing Moon"/>
+        <filter val="Ectoplasmic Discharge"/>
+        <filter val="Eldritch Consumption"/>
+        <filter val="Eldritch Energy Hammer"/>
+        <filter val="Eldritch Fang"/>
+        <filter val="Eldritch Shield"/>
+        <filter val="Elemental Absorption"/>
+        <filter val="Elemental Destruction Ring"/>
+        <filter val="Elemental Drive"/>
+        <filter val="Elemental Flux Stance"/>
+        <filter val="Elemental Nimbus"/>
+        <filter val="Elemental Realignment"/>
+        <filter val="Elemental Restraint"/>
+        <filter val="Elemental Strike"/>
+        <filter val="Elemental Vortex"/>
+        <filter val="Empathic Response"/>
+        <filter val="Encouraging Advice"/>
+        <filter val="Encouraging Peal"/>
+        <filter val="Encouraging Reaction"/>
+        <filter val="Encouraging Stance"/>
+        <filter val="End of the Beginning"/>
+        <filter val="Energy Hammer"/>
+        <filter val="Energy Jolt"/>
+        <filter val="Energy Spark"/>
+        <filter val="Enlarge"/>
+        <filter val="Enlarge Companion"/>
+        <filter val="Enter the Vortex"/>
+        <filter val="Entropic Burst"/>
+        <filter val="Essence Shattering Strike"/>
+        <filter val="Ether Wave"/>
+        <filter val="Ethereal Reminiscence"/>
+        <filter val="Evasive Action"/>
+        <filter val="Evasive Strike"/>
+        <filter val="Evasive Techniques"/>
+        <filter val="Everburn"/>
+        <filter val="Everything You Got"/>
+        <filter val="Expanding Phase Transition"/>
+        <filter val="Exploit Weakness"/>
+        <filter val="Explosive Item"/>
+        <filter val="Expose Target"/>
+        <filter val="Expose Weakness"/>
+        <filter val="Eye Shot"/>
+        <filter val="Eye the Enemy"/>
+        <filter val="Eyes All Around"/>
+        <filter val="Fade Through"/>
+        <filter val="Fading Leap"/>
+        <filter val="Fading Strike"/>
+        <filter val="Failure Is Not an Option"/>
+        <filter val="Failure to Communicate"/>
+        <filter val="Faith Healing"/>
+        <filter val="Fake Echo"/>
+        <filter val="Fall of Heaven"/>
+        <filter val="False Strike"/>
+        <filter val="Familiar Guidance"/>
+        <filter val="Farstrider"/>
+        <filter val="Fast Burn"/>
+        <filter val="Fast Learner"/>
+        <filter val="Faster Than The Hammer"/>
+        <filter val="Fast-Talk"/>
+        <filter val="Fearful Rampage"/>
+        <filter val="Fearsome Roar"/>
+        <filter val="Feign Mortality"/>
+        <filter val="Feint"/>
+        <filter val="Feline-Like Grace"/>
+        <filter val="Fend Off Horde"/>
+        <filter val="Ferocious Feline"/>
+        <filter val="Field Control"/>
+        <filter val="Fiery Sigil"/>
+        <filter val="Fiery Spirit"/>
+        <filter val="Figment Form"/>
+        <filter val="Finish the Job"/>
+        <filter val="Fire Lash"/>
+        <filter val="Fire Shard"/>
+        <filter val="First Blood"/>
+        <filter val="Flail About"/>
+        <filter val="Flailing Attacks"/>
+        <filter val="Flaming Teleport"/>
+        <filter val="Flanking Echo"/>
+        <filter val="Flash of Brilliance"/>
+        <filter val="Flash of Violence"/>
+        <filter val="Flashing Ether Touch"/>
+        <filter val="Flawless Victory"/>
+        <filter val="Flicker Strike"/>
+        <filter val="Flip Dodge"/>
+        <filter val="Flittering Form"/>
+        <filter val="Flow Like Water"/>
+        <filter val="Flow or Crash"/>
+        <filter val="Fluctuation Movement"/>
+        <filter val="Flurry of Arrows"/>
+        <filter val="Flying Blade"/>
+        <filter val="Focus Everything"/>
+        <filter val="Focus Surge"/>
+        <filter val="Focus Target"/>
+        <filter val="Focus Weakness"/>
+        <filter val="Focused Shot"/>
+        <filter val="Follow the Blood"/>
+        <filter val="For the Common Honor"/>
+        <filter val="For the Sake of the Team"/>
+        <filter val="Force Back"/>
+        <filter val="Force It Back"/>
+        <filter val="Force Sphere"/>
+        <filter val="Forceful Animus"/>
+        <filter val="Forked Tongue"/>
+        <filter val="Formless Dance"/>
+        <filter val="Found the Sweet Spot"/>
+        <filter val="Frenzy"/>
+        <filter val="Frenzy Oil"/>
+        <filter val="Friendly Zephyr"/>
+        <filter val="Frozen Creation"/>
+        <filter val="Full Moon Stance"/>
+        <filter val="Full Suite"/>
+        <filter val="Full Sweep"/>
+        <filter val="Gambit Recovery"/>
+        <filter val="Game Theory"/>
+        <filter val="Gargoyle’s Rest"/>
+        <filter val="Gaze of Aeons"/>
+        <filter val="General Confusion"/>
+        <filter val="Gentlefolk’s Challenge"/>
+        <filter val="Geometric Strategy"/>
+        <filter val="Ghost Hunting Blow"/>
+        <filter val="Ghost Sound"/>
+        <filter val="Ghostly Form"/>
+        <filter val="Ghostwalk"/>
+        <filter val="Giant Form"/>
+        <filter val="Gloom"/>
+        <filter val="Glowing Moss"/>
+        <filter val="Go for the Kill"/>
+        <filter val="Go to Sleep"/>
+        <filter val="Goad"/>
+        <filter val="Godly String"/>
+        <filter val="Golden Claw"/>
+        <filter val="Golden Commander Stance"/>
+        <filter val="Golden General’s Stance"/>
+        <filter val="Golden General’s Victory"/>
+        <filter val="Golden Lion Charger"/>
+        <filter val="Golden Swipe"/>
+        <filter val="Gooey Eruption"/>
+        <filter val="Gorgon’s Breath"/>
+        <filter val="Grace Under Pressure"/>
+        <filter val="Grapple"/>
+        <filter val="Grasping Vines"/>
+        <filter val="Greater Binding"/>
+        <filter val="Gripped with Fear"/>
+        <filter val="Gruff and Tough"/>
+        <filter val="Guard the Pride"/>
+        <filter val="Guidance"/>
+        <filter val="Guide My Hand"/>
+        <filter val="Hagrider"/>
+        <filter val="Half-Gone"/>
+        <filter val="Hallucinations"/>
+        <filter val="Hallucinatory Terrain"/>
+        <filter val="Halo of Fire"/>
+        <filter val="Hammerfall"/>
+        <filter val="Hang Together"/>
+        <filter val="Hard to Miss"/>
+        <filter val="Harmless Misdirection"/>
+        <filter val="Harry the Prey"/>
+        <filter val="Harsh Light of Day"/>
+        <filter val="Hasty Retreat"/>
+        <filter val="He Ain’t Heavy"/>
+        <filter val="Head Down"/>
+        <filter val="Head Trip"/>
+        <filter val="Healer’s Bane"/>
+        <filter val="Hearten the Squad"/>
+        <filter val="Heat Death"/>
+        <filter val="Heron Defense"/>
+        <filter val="Hidden Blow"/>
+        <filter val="Hidden Grove"/>
+        <filter val="Highblood Teleport"/>
+        <filter val="Hip Throw"/>
+        <filter val="Hold Fast"/>
+        <filter val="Hold The Breath, Skip A Beat"/>
+        <filter val="Hunting Party"/>
+        <filter val="Hunting Spider Venom"/>
+        <filter val="I Can Hear Bells Ringing"/>
+        <filter val="I Know This Trick"/>
+        <filter val="I’ll Take It"/>
+        <filter val="I’m the Juggernaut"/>
+        <filter val="Ice Castle"/>
+        <filter val="Identify Target"/>
+        <filter val="Identify Weak Point"/>
+        <filter val="Idle Hands"/>
+        <filter val="Ignite"/>
+        <filter val="I'll Have That"/>
+        <filter val="Illogical Rage"/>
+        <filter val="Illusory Feast"/>
+        <filter val="Imprint"/>
+        <filter val="Impromptu Surgery"/>
+        <filter val="Improvisational Desperation"/>
+        <filter val="In The Face"/>
+        <filter val="In Their Face"/>
+        <filter val="Incept Idea"/>
+        <filter val="Inconsequential Injury"/>
+        <filter val="Indirect Camouflage"/>
+        <filter val="Infuse with Life"/>
+        <filter val="Ingenuity"/>
+        <filter val="Inherit Toughness"/>
+        <filter val="Inner Sense"/>
+        <filter val="Inspire the Troops"/>
+        <filter val="Instant Analysis"/>
+        <filter val="Instant Friends"/>
+        <filter val="Instant Infatuation"/>
+        <filter val="Instant Recovery"/>
+        <filter val="Instant Regeneration"/>
+        <filter val="Instill Confidence"/>
+        <filter val="Instinctive Shift"/>
+        <filter val="Instinctual Reaction"/>
+        <filter val="Insult to Injury"/>
+        <filter val="Intangible Wings"/>
+        <filter val="Intensity"/>
+        <filter val="Interfering Companion"/>
+        <filter val="Internal Ricochet"/>
+        <filter val="Intimate Assassin"/>
+        <filter val="Into the Fire"/>
+        <filter val="Into the Fray"/>
+        <filter val="Jaw Strike"/>
+        <filter val="Judgement Day"/>
+        <filter val="Just Desserts"/>
+        <filter val="Just Got the Wind Knocked"/>
+        <filter val="Just Stop …"/>
+        <filter val="Just Walk It Off"/>
+        <filter val="Keep Burning Please"/>
+        <filter val="Keyhole Attack"/>
+        <filter val="Kill the Wounded"/>
+        <filter val="Killing Doubt"/>
+        <filter val="Kinesics"/>
+        <filter val="King’s Castle"/>
+        <filter val="Kip-Up"/>
+        <filter val="Knock-About Strike"/>
+        <filter val="Knockback"/>
+        <filter val="Knock-Out Button"/>
+        <filter val="Knockout Power"/>
+        <filter val="Lance of Power"/>
+        <filter val="Last Second Recovery"/>
+        <filter val="Lasting Image"/>
+        <filter val="Lead the Group"/>
+        <filter val="Lead the Shot"/>
+        <filter val="Leap to Companion"/>
+        <filter val="Leaping Intercept"/>
+        <filter val="Leaping Spirit Dance"/>
+        <filter val="Least Binding"/>
+        <filter val="Lesser Binding"/>
+        <filter val="Lethal Misdirection"/>
+        <filter val="Lethargy Poison"/>
+        <filter val="Lifeburst Imbuement"/>
+        <filter val="Lifeburst Strike"/>
+        <filter val="Lifelink"/>
+        <filter val="Lift Spirits"/>
+        <filter val="Light Shadow"/>
+        <filter val="Light Ward"/>
+        <filter val="Lightning Shard"/>
+        <filter val="Lights Out"/>
+        <filter val="Like a Ghost"/>
+        <filter val="Like An Elephant"/>
+        <filter val="Lion Lord’s Agony"/>
+        <filter val="Long Range Communication"/>
+        <filter val="Look Alive!"/>
+        <filter val="Look Out, Sir"/>
+        <filter val="Looking Nonchalant"/>
+        <filter val="Loose Joints"/>
+        <filter val="Lord of the Pridelands"/>
+        <filter val="Lucidity"/>
+        <filter val="Lucky"/>
+        <filter val="Lunar Penumbra"/>
+        <filter val="Lunging Draw"/>
+        <filter val="Lure"/>
+        <filter val="Machine of Destruction"/>
+        <filter val="Mad Dash"/>
+        <filter val="Mad Rush"/>
+        <filter val="Mageblade’s Sigil"/>
+        <filter val="Make It Dance"/>
+        <filter val="Make Room"/>
+        <filter val="Make Sure They’re Dead"/>
+        <filter val="Making It Up"/>
+        <filter val="Making Matters Worse"/>
+        <filter val="Malice"/>
+        <filter val="Malyass Root Paste"/>
+        <filter val="Mark of the Puppeteer"/>
+        <filter val="Martyr"/>
+        <filter val="Mass Synesthesia"/>
+        <filter val="Master Combo"/>
+        <filter val="Master’s Form"/>
+        <filter val="Measured Response"/>
+        <filter val="Mental Prediction"/>
+        <filter val="Metalform"/>
+        <filter val="Metamagical Theorums"/>
+        <filter val="Metamagical Violence"/>
+        <filter val="Method Acting"/>
+        <filter val="Micro Burst"/>
+        <filter val="Milestone Foe"/>
+        <filter val="Mind Shard"/>
+        <filter val="Mindfog Mist"/>
+        <filter val="Mindless Mayhem"/>
+        <filter val="Minor Binding"/>
+        <filter val="Mistaken Aggravation"/>
+        <filter val="Mocking Curse"/>
+        <filter val="Moment of Truth"/>
+        <filter val="Momentum Blow"/>
+        <filter val="Mosquito’s Nip"/>
+        <filter val="Mounted Attack"/>
+        <filter val="Natural Instincts"/>
+        <filter val="Negate Critical"/>
+        <filter val="Nerve Cluster"/>
+        <filter val="Neural Slice"/>
+        <filter val="Neural Spear"/>
+        <filter val="New Position"/>
+        <filter val="Nexus of Elemental Retribution"/>
+        <filter val="Night Terrors"/>
+        <filter val="Nightmare Colossus"/>
+        <filter val="Nightmare Salt"/>
+        <filter val="No Exit Wound"/>
+        <filter val="No Longer Civilized"/>
+        <filter val="No One Hits The Chief"/>
+        <filter val="No One Left Behind"/>
+        <filter val="No Sweat"/>
+        <filter val="No Time to Bleed"/>
+        <filter val="Noblesse Oblige"/>
+        <filter val="Nock Three Arrows"/>
+        <filter val="Nosebleed"/>
+        <filter val="Not Tolerate Losing"/>
+        <filter val="Now What Did We Learn?"/>
+        <filter val="Oblivion Essence"/>
+        <filter val="Off the Bone"/>
+        <filter val="Oil of Taggit"/>
+        <filter val="On A Pile of Corpses"/>
+        <filter val="On Your Feet"/>
+        <filter val="Once More Into the Breach"/>
+        <filter val="One on One"/>
+        <filter val="One-Two Strike"/>
+        <filter val="Only Fooling"/>
+        <filter val="Only Way Out Is Through"/>
+        <filter val="Onslaught"/>
+        <filter val="Organ Shot"/>
+        <filter val="Out of Mind"/>
+        <filter val="Out of the Fire"/>
+        <filter val="Outthink &amp; Outwit"/>
+        <filter val="Overreach Lunge"/>
+        <filter val="Overrun"/>
+        <filter val="Overwatch"/>
+        <filter val="Pack Pounce"/>
+        <filter val="Pale Tincture"/>
+        <filter val="Panicked Switch"/>
+        <filter val="Parley"/>
+        <filter val="Passing Kill"/>
+        <filter val="Path of the Sun"/>
+        <filter val="Peal of Hope"/>
+        <filter val="Penetrating Shot"/>
+        <filter val="Perfect Form"/>
+        <filter val="Perfect Harmony"/>
+        <filter val="Perfect Masquerade"/>
+        <filter val="Perfect Shot Placement"/>
+        <filter val="Perfect Timing"/>
+        <filter val="Personal Betrayal"/>
+        <filter val="Personality Manipulation"/>
+        <filter val="Perverse Blessing"/>
+        <filter val="Phantasmal Leap"/>
+        <filter val="Phantom Penumbra"/>
+        <filter val="Phase Spider Venom"/>
+        <filter val="Phrenic Cascade"/>
+        <filter val="Pinning Shot"/>
+        <filter val="Pinpoint Accuracy"/>
+        <filter val="Pinpoint Objective"/>
+        <filter val="Pioneer"/>
+        <filter val="Plan of Attack"/>
+        <filter val="Pocket of Sand"/>
+        <filter val="Point Of No Return"/>
+        <filter val="Poisonous Nip"/>
+        <filter val="Poleaxe"/>
+        <filter val="Positive Reinforcement"/>
+        <filter val="Potential Push"/>
+        <filter val="Pound for Pound"/>
+        <filter val="Powerful Swipe"/>
+        <filter val="Press the Advantage"/>
+        <filter val="Pressure Point"/>
+        <filter val="Prestige Binding"/>
+        <filter val="Pride Leader’s Stance"/>
+        <filter val="Pride Movement"/>
+        <filter val="Prodigy"/>
+        <filter val="Proselytize"/>
+        <filter val="Protective Instincts"/>
+        <filter val="Proud Target"/>
+        <filter val="Psi Focus"/>
+        <filter val="Psychic Leap"/>
+        <filter val="Psychic Refresh"/>
+        <filter val="Pull It Together"/>
+        <filter val="Punish Cowardice"/>
+        <filter val="Pure Puppeteer"/>
+        <filter val="Push Explosion"/>
+        <filter val="Push the Advantage"/>
+        <filter val="Pyrite Swipe"/>
+        <filter val="Quick Change Artist"/>
+        <filter val="Quick Save"/>
+        <filter val="Rabble Babble"/>
+        <filter val="Race to the Fallen"/>
+        <filter val="Raging Flux"/>
+        <filter val="Rake"/>
+        <filter val="Rally"/>
+        <filter val="Rally the Troops"/>
+        <filter val="Rallying Instruction"/>
+        <filter val="Rapid Shots"/>
+        <filter val="Read Body Language"/>
+        <filter val="Recall Familiar"/>
+        <filter val="Recall Probe"/>
+        <filter val="Redirecting Flux"/>
+        <filter val="Redirection of Energy"/>
+        <filter val="Redoubled Misery"/>
+        <filter val="Reduce"/>
+        <filter val="Reevaluate Strategy"/>
+        <filter val="Reflex Shot"/>
+        <filter val="Regenesis"/>
+        <filter val="Relentless Endurance"/>
+        <filter val="Remember Me?"/>
+        <filter val="Repair Module"/>
+        <filter val="Repel"/>
+        <filter val="Repulsion Resin"/>
+        <filter val="Reputation Earned"/>
+        <filter val="Rescuing Angel"/>
+        <filter val="Rescuing Intercept"/>
+        <filter val="Resonance Strike"/>
+        <filter val="Resonant Ray"/>
+        <filter val="Rested Mind"/>
+        <filter val="Restraint"/>
+        <filter val="Retort"/>
+        <filter val="Reverberation"/>
+        <filter val="Rhinohide"/>
+        <filter val="Right into the Trap"/>
+        <filter val="Roar of Battle"/>
+        <filter val="Rocket Propulsion"/>
+        <filter val="Roll With It"/>
+        <filter val="Rope-A-Dope"/>
+        <filter val="Roundabout Strike"/>
+        <filter val="Roundhouse Attack"/>
+        <filter val="Sadistic Shot"/>
+        <filter val="Safeguard Companion"/>
+        <filter val="Scent"/>
+        <filter val="Scornful Laugh"/>
+        <filter val="Scout Form"/>
+        <filter val="Scrape Vehicles"/>
+        <filter val="Scratching Tempest"/>
+        <filter val="Secure Perimeter"/>
+        <filter val="Selective Shots"/>
+        <filter val="Shadowswarm"/>
+        <filter val="Shake It Off"/>
+        <filter val="Shape Magic"/>
+        <filter val="Shape of the Badger"/>
+        <filter val="Shape of the Bat"/>
+        <filter val="Shape of the Bear"/>
+        <filter val="Shape of the Cat"/>
+        <filter val="Shape of the Chimera"/>
+        <filter val="Shape of the Dire Rat"/>
+        <filter val="Shape of the Dragon"/>
+        <filter val="Shape of the Eagle"/>
+        <filter val="Shape of the Elk"/>
+        <filter val="Shape of the Frog"/>
+        <filter val="Shape of the Great Wyrm"/>
+        <filter val="Shape of the Manticore"/>
+        <filter val="Shape of the Raptor"/>
+        <filter val="Shape of the Serpent"/>
+        <filter val="Shape of the Shark"/>
+        <filter val="Shape of the Toad"/>
+        <filter val="Shape of the Tortoise"/>
+        <filter val="Shape of the Weaver"/>
+        <filter val="Shape of the Wolf"/>
+        <filter val="Shape of the Wyrmling"/>
+        <filter val="Share Senses"/>
+        <filter val="Shared Bite"/>
+        <filter val="Sharpshooter"/>
+        <filter val="Sharpshooter’s Aim"/>
+        <filter val="Shatter Spell"/>
+        <filter val="Sheltering Lamp"/>
+        <filter val="Shielded Soul"/>
+        <filter val="Shift Resistance"/>
+        <filter val="Shifting Scape / Scuttling Residue"/>
+        <filter val="Shillelagh"/>
+        <filter val="Shining Example"/>
+        <filter val="Shock And Awe"/>
+        <filter val="Shot on the Run"/>
+        <filter val="Shove"/>
+        <filter val="Sic ’Em"/>
+        <filter val="Side by Side"/>
+        <filter val="Side Control"/>
+        <filter val="Sidestep Charge"/>
+        <filter val="Single Bound"/>
+        <filter val="Siphon the Soul"/>
+        <filter val="Skyfall"/>
+        <filter val="Sleep Dart"/>
+        <filter val="Sleep's Fatal Embrace"/>
+        <filter val="Sleepyheads"/>
+        <filter val="Slick Feint"/>
+        <filter val="Sling of Misfortune"/>
+        <filter val="Slip Between Worlds"/>
+        <filter val="Slippery Bastard"/>
+        <filter val="Sloppy Strike"/>
+        <filter val="Smack-Attack"/>
+        <filter val="Smooth Talker"/>
+        <filter val="Snap-Shot"/>
+        <filter val="Snap-Sweep"/>
+        <filter val="Sneaky Strike"/>
+        <filter val="Soften"/>
+        <filter val="Somatic Reflex Arc"/>
+        <filter val="Sow Distrust"/>
+        <filter val="Spark Strike"/>
+        <filter val="Spear Discipline"/>
+        <filter val="Spear Frog Poison"/>
+        <filter val="Spherical Discipline"/>
+        <filter val="Spikey Bastard"/>
+        <filter val="Spirit Sensing Stance"/>
+        <filter val="Spirit’s Prank"/>
+        <filter val="Spiritual Weapon Stance"/>
+        <filter val="Splintering Shot"/>
+        <filter val="Spoils of War"/>
+        <filter val="Spreading the Rot"/>
+        <filter val="Sprouting Overwatch"/>
+        <filter val="Spur On"/>
+        <filter val="Squeeeeze"/>
+        <filter val="Stab in the Soul"/>
+        <filter val="Stacked Volleys"/>
+        <filter val="Staff Sweep"/>
+        <filter val="Stalking Horse"/>
+        <filter val="Stampede"/>
+        <filter val="Stance of the Ether Gate"/>
+        <filter val="Standing Barrage"/>
+        <filter val="Staunching Strike"/>
+        <filter val="Step Aside"/>
+        <filter val="Stick to the Plan"/>
+        <filter val="Stomp"/>
+        <filter val="Stoneblood"/>
+        <filter val="Stout Rebuff"/>
+        <filter val="Stow"/>
+        <filter val="Strafing Attack"/>
+        <filter val="Strategic Blow"/>
+        <filter val="Strike and Slip Away"/>
+        <filter val="Strike of Elemental Devastation"/>
+        <filter val="Strike the Weakened Mind"/>
+        <filter val="String-Combo"/>
+        <filter val="Stunning Good Looks"/>
+        <filter val="Subtle Encouragement"/>
+        <filter val="Sudden Exposure"/>
+        <filter val="Sudden Leap"/>
+        <filter val="Sudden Valley"/>
+        <filter val="Summon Mournwraith"/>
+        <filter val="Sunder"/>
+        <filter val="Sunlight Shields"/>
+        <filter val="Sunstroke"/>
+        <filter val="Superior Strategic Endeavor"/>
+        <filter val="Supernatural Beauty"/>
+        <filter val="Suppressing Shots"/>
+        <filter val="Sure Cut"/>
+        <filter val="Sure Thing"/>
+        <filter val="Sure-Kill"/>
+        <filter val="Surging Meditation"/>
+        <filter val="Survivor"/>
+        <filter val="Sweep Terrain"/>
+        <filter val="Swell of Discipline"/>
+        <filter val="Swift Rampage"/>
+        <filter val="Swift Riposte"/>
+        <filter val="Swift Strike"/>
+        <filter val="Swift, Silent, Deadly"/>
+        <filter val="Swords into Ploughshares"/>
+        <filter val="Tactical Alteration"/>
+        <filter val="Tactical Strike"/>
+        <filter val="Take Me"/>
+        <filter val="Take the Lead"/>
+        <filter val="Talk Down"/>
+        <filter val="Target Priority"/>
+        <filter val="Targeted Call"/>
+        <filter val="Taunting Mockery"/>
+        <filter val="Technical Attack"/>
+        <filter val="Telepathic Blocker"/>
+        <filter val="Telepathy"/>
+        <filter val="Tenacity"/>
+        <filter val="Tesseract"/>
+        <filter val="The Behemoth"/>
+        <filter val="The Bulldozer"/>
+        <filter val="The Caged Sun"/>
+        <filter val="The Finisher"/>
+        <filter val="The Fortress"/>
+        <filter val="The Killing Field"/>
+        <filter val="The Professional"/>
+        <filter val="The Runaway Boulder"/>
+        <filter val="The Strength Within"/>
+        <filter val="The Twin"/>
+        <filter val="The Weight of Time"/>
+        <filter val="Theriophily"/>
+        <filter val="Thermal Absorption"/>
+        <filter val="Thermal Isolation"/>
+        <filter val="Thermal Shield"/>
+        <filter val="Thermal Touch"/>
+        <filter val="Thermal Wall"/>
+        <filter val="Thermodynamic Bolt"/>
+        <filter val="Thief’s Strike"/>
+        <filter val="Think Things Through"/>
+        <filter val="This One Especially"/>
+        <filter val="Thought Process"/>
+        <filter val="Thousands of Calculations"/>
+        <filter val="Threat Discouragement"/>
+        <filter val="Through New Eyes"/>
+        <filter val="Through the Foot"/>
+        <filter val="Through the Hat"/>
+        <filter val="Throw Off"/>
+        <filter val="Throw Web"/>
+        <filter val="To Arms"/>
+        <filter val="To the Rescue!"/>
+        <filter val="Toadskin Salve"/>
+        <filter val="Tolerance Threshold"/>
+        <filter val="Tongue Lash"/>
+        <filter val="Torpor"/>
+        <filter val="Torque Twist"/>
+        <filter val="Touched a Nerve"/>
+        <filter val="Tough as Nails"/>
+        <filter val="Toxophilite"/>
+        <filter val="Tracking Shots"/>
+        <filter val="Transplant Senses"/>
+        <filter val="Travel Bug"/>
+        <filter val="Tricky Taunt"/>
+        <filter val="Trip"/>
+        <filter val="Tri-Shot"/>
+        <filter val="Triumphant Lion’s Leadership"/>
+        <filter val="True Grit"/>
+        <filter val="True Targeting"/>
+        <filter val="Truth Serum"/>
+        <filter val="Tumbling Strike"/>
+        <filter val="Twirling Towards Freedom"/>
+        <filter val="Twisting Ether"/>
+        <filter val="Two Steps Ahead"/>
+        <filter val="Tyrant’s End"/>
+        <filter val="Ultimate Binding"/>
+        <filter val="Unachievable Transition"/>
+        <filter val="Unarmed Flurry"/>
+        <filter val="Unbalancing Strike"/>
+        <filter val="Unerring Guidance"/>
+        <filter val="Unleashed Spirit"/>
+        <filter val="Unnerve"/>
+        <filter val="Unshakable Persona"/>
+        <filter val="Unveiling the Godmind"/>
+        <filter val="Variable Flux"/>
+        <filter val="Vengeance of the Pits"/>
+        <filter val="Venomous Strike"/>
+        <filter val="Vicious Hook"/>
+        <filter val="Violent Rush"/>
+        <filter val="Visual Deletion"/>
+        <filter val="Volume and Presence"/>
+        <filter val="Vortex Sigil"/>
+        <filter val="Wade In"/>
+        <filter val="War Lion’s Charge"/>
+        <filter val="Warning Roar"/>
+        <filter val="Warp Worm"/>
+        <filter val="Warrior’s Surge"/>
+        <filter val="Wear Them Down"/>
+        <filter val="Weeping Midnight"/>
+        <filter val="Well-Informed Hypothesis"/>
+        <filter val="When A Plan Comes Together"/>
+        <filter val="Where They Don’t Expect You"/>
+        <filter val="Who, Me?"/>
+        <filter val="Wild Empathy"/>
+        <filter val="Wild Swings"/>
+        <filter val="Wildfire"/>
+        <filter val="Wildfire Blitz"/>
+        <filter val="Winning Smile"/>
+        <filter val="Witness to Glory"/>
+        <filter val="Wrath of the She-Bear"/>
+        <filter val="You, Afraid?"/>
+        <filter val="Zephyr Flux"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB966">
     <sortCondition ref="B2:B966"/>
     <sortCondition ref="C2:C966"/>

--- a/data/Orcus - Powers.xlsx
+++ b/data/Orcus - Powers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Projects\Tabletop games\d20 System or D&amp;D-esque\2021 Orcus - 4E clone\GitHub\orcus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499470FF-35F6-4217-BD7F-989DA213E7E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA7B5AE-CB23-4931-B1AC-CD8AA0977062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11746,10 +11746,10 @@
   <dimension ref="A1:AB967"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
